--- a/medicine/Handicap/Classe_pour_l'inclusion_scolaire/Classe_pour_l'inclusion_scolaire.xlsx
+++ b/medicine/Handicap/Classe_pour_l'inclusion_scolaire/Classe_pour_l'inclusion_scolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classe_pour_l%27inclusion_scolaire</t>
+          <t>Classe_pour_l'inclusion_scolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unité localisée pour l'inclusion scolaire ou ULIS-école a remplacé la CLIS en septembre 2015.
 La classe pour l'intégration puis pour l'inclusion scolaire (CLIS) était en France un parcours scolaire qui orientait à partir de la fin du cycle 1 (fin d'école maternelle) et parfois même à l'âge pré-élémentaire (de 3 à 5 ans), les enfants en situation de handicap. Ces classes accueillaient de façon différenciée (dans certaines écoles primaires), sur une temporalité variée (à temps complet ou partiel), avec ou sans auxiliaire de vie scolaire, 12 élèves au maximum. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classe_pour_l%27inclusion_scolaire</t>
+          <t>Classe_pour_l'inclusion_scolaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1989, la loi d'orientation no 89-486 pour l'école remodèle les structures de l'enseignement spécialisé de l'éducation nationale. Le ministère de la Santé encourage ainsi le déploiement de moyens mis à la disposition des établissements spécialisés afin de mettre en place des services spécialisés dans l'accompagnement des familles et des élèves en intégration scolaire.
 Les classes pour l'intégration scolaire correspondent aux premières classes créées, dans les écoles élémentaires et maternelles, spécifiquement pour les élèves handicapé·e·s. Il convient toutefois de se rappeler qu’il s’agit plus d’une évolution de la définition du handicap, qui est dorénavant reconnu comme pouvant être physique, sensoriel ou mental, plutôt qu’un réel changement de pratique, puisque les classes de perfectionnement recevaient déjà les élèves débiles et « présentant d’autres formes de déficiences, en particulier physiques et sensorielles, génératrices d’incapacités et de handicaps ».
@@ -524,7 +538,7 @@
 l'objectif affiché d'intégration des élèves dans les autres classes de l'école en fonction du projet de l'élève, l'intégration pouvant avoir lieu de manière collective ou individuelle ;
 le fonctionnement interne des différentes CLIS.
 La circulaire no 99-187 du 19 novembre 1999 mentionne que la scolarisation des élèves handicapés est un droit, et que l'intégration sociale passe par une intégration scolaire. Cette circulaire élabore le dispositif Handiscol.
-Leur fonctionnement a depuis été modifié par la circulaire no 2002-113 du 30 avril 2002[1], puis par la circulaire no 2006-051 du 27 mars 2006[2] (faisant notamment suite à la loi Handicap de 2005[3]) qui précise notamment les relations avec la MDPH (maison départementale des personnes handicapés).
+Leur fonctionnement a depuis été modifié par la circulaire no 2002-113 du 30 avril 2002, puis par la circulaire no 2006-051 du 27 mars 2006 (faisant notamment suite à la loi Handicap de 2005) qui précise notamment les relations avec la MDPH (maison départementale des personnes handicapés).
 </t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Classe_pour_l%27inclusion_scolaire</t>
+          <t>Classe_pour_l'inclusion_scolaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Organisation et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis la circulaire no 2009-087 du 17-7-2009, parue au B.O.no 31 du 27 août 2009, la CLIS est redéfinie dans son appellation : Classe pour l'Inclusion Scolaire. Elle y est définie comme « une classe à part entière de l'école dans laquelle elle est implantée » (§2, Organisation et fonctionnement d'une CLIS).
 Les CLIS ont pour vocation d’accueillir des élèves en situation de handicap dans des écoles ordinaires afin de leur permettre de suivre totalement ou partiellement un cursus scolaire ordinaire.
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Classe_pour_l%27inclusion_scolaire</t>
+          <t>Classe_pour_l'inclusion_scolaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Programmes et projets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les CLIS ont pour objectif d'aider les élèves à poursuivre une scolarité en milieu ordinaire. Elles suivent les programmes scolaires des cycles 1, 2 et 3, en fonction des capacités des élèves et des dispositifs possibles.
 La scolarisation de l'élève de CLIS s'articule autour du Projet Personnalisé de Scolarisation (PPS), élaboré par l'équipe pluridisciplinaire de la MDPH, notifié par la CDA (Commission des Droits et de l'Autonomie) et mise en œuvre en équipe de suivi de scolarisation (ESS), regroupant tous les partenaires gravitant autour de l'élève : enseignant référent, parents, enseignant, psychologue scolaire, thérapeutes (SESSAD, CMP, CMPP, CPEA, CAMSP, etc., thérapeutes en libéral), partenaires sociaux, familles d'accueil, etc. 
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Classe_pour_l%27inclusion_scolaire</t>
+          <t>Classe_pour_l'inclusion_scolaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,6 +646,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
